--- a/システム論理説明/気象データ明細出力_システム構成.xlsx
+++ b/システム論理説明/気象データ明細出力_システム構成.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム論理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB692C-EE45-3141-8B1D-3E747147CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7608FEC-2215-1748-90AF-25B891507E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム概要" sheetId="6" r:id="rId1"/>
@@ -503,34 +503,6 @@
   </si>
   <si>
     <t>3.出力ファイルレイアウト例</t>
-  </si>
-  <si>
-    <r>
-      <t>システムURL(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.md-data.net/sendPost/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・サーバーサイドAPI：キューの登録と、ビジネスロジックを含んだバッチ処理を行うシステム</t>
@@ -1318,6 +1290,34 @@
     <rPh sb="60" eb="62">
       <t>タジュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>システムURL(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.md-data.net/sendPost/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8301,15 +8301,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7D51F-5FF9-0049-A3D4-BE219A225C44}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8355,7 +8355,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="3:3">
@@ -8365,12 +8365,12 @@
     </row>
     <row r="81" spans="2:13">
       <c r="C81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="C82" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="2:13">
@@ -8378,7 +8378,7 @@
         <v>47</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8400,7 +8400,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8421,12 +8421,12 @@
     </row>
     <row r="7" spans="1:19">
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -8447,7 +8447,7 @@
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -8457,12 +8457,12 @@
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -8489,7 +8489,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8525,12 +8525,12 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -8554,7 +8554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6A5E1-43DC-9645-BD19-A608B502712C}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -8562,7 +8562,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8609,13 +8609,13 @@
     <row r="14" spans="1:4">
       <c r="B14" s="1"/>
       <c r="C14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1"/>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -8630,7 +8630,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -8640,7 +8640,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -8696,7 +8696,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8769,7 +8769,7 @@
     </row>
     <row r="34" spans="2:14">
       <c r="C34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:14">
@@ -8784,37 +8784,37 @@
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:14">
       <c r="C39" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:14">
       <c r="C40" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:14">
       <c r="C41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:14">
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="C45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="2:14">
@@ -8851,43 +8851,43 @@
     </row>
     <row r="50" spans="3:8">
       <c r="F50" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="F54" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="F55" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="F56" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8913,7 +8913,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8924,37 +8924,37 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8962,45 +8962,45 @@
     </row>
     <row r="15" spans="1:4" ht="19" thickBot="1">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19" thickBot="1">
       <c r="B16" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="19" thickBot="1">
       <c r="K21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19" thickBot="1">
       <c r="I22" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19" thickBot="1">
@@ -9008,12 +9008,12 @@
     </row>
     <row r="27" spans="2:11" ht="19" thickBot="1">
       <c r="B27" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
